--- a/data/2024/ssg/7,31_DE-5.xlsx
+++ b/data/2024/ssg/7,31_DE-5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -163,6 +163,12 @@
     <t>NL</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
     <t>2278491-3</t>
   </si>
   <si>
@@ -248,9 +254,6 @@
   </si>
   <si>
     <t>Dijon</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>19</t>
@@ -816,15 +819,15 @@
         <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="Y3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -833,7 +836,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
@@ -851,10 +854,10 @@
         <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
@@ -875,10 +878,10 @@
         <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
         <v>48</v>
@@ -893,33 +896,33 @@
         <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="Y4" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
@@ -931,7 +934,7 @@
         <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s">
         <v>32</v>
@@ -952,10 +955,10 @@
         <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="S5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T5" t="s">
         <v>48</v>
@@ -970,15 +973,15 @@
         <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="Y5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -987,13 +990,13 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
@@ -1005,10 +1008,10 @@
         <v>32</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s">
         <v>32</v>
@@ -1026,10 +1029,10 @@
         <v>32</v>
       </c>
       <c r="Q6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s">
         <v>32</v>
@@ -1038,13 +1041,13 @@
         <v>32</v>
       </c>
       <c r="U6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s">
         <v>36</v>
@@ -1055,7 +1058,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1064,13 +1067,13 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
         <v>43</v>
@@ -1082,10 +1085,10 @@
         <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L7" t="s">
         <v>32</v>
@@ -1106,7 +1109,7 @@
         <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s">
         <v>32</v>
@@ -1115,19 +1118,19 @@
         <v>32</v>
       </c>
       <c r="U7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s">
         <v>32</v>
       </c>
       <c r="X7" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
